--- a/public/system/spreadsheet/template/packing_template.xlsx
+++ b/public/system/spreadsheet/template/packing_template.xlsx
@@ -5,13 +5,16 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="PACKING TOTAL" sheetId="1" r:id="rId4"/>
+    <sheet name="Packing" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+  <si>
+    <t>#HeaderBegin#</t>
+  </si>
   <si>
     <t>LION INTERNATIONAL TRADING  CO.,LTD</t>
   </si>
@@ -32,7 +35,7 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
-        <rFont val="Verdana"/>
+        <rFont val="宋体"/>
       </rPr>
       <t>CLIENT</t>
     </r>
@@ -46,7 +49,7 @@
     </r>
   </si>
   <si>
-    <t>#{customer}</t>
+    <t>“customer”</t>
   </si>
   <si>
     <r>
@@ -62,13 +65,22 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>PORT OF DISPATCH</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>PORT OF DISPATCH:</t>
+      <t>:</t>
     </r>
   </si>
   <si>
-    <t>#{port_of_dispatch}</t>
+    <t>“port_of_dispatch”</t>
   </si>
   <si>
     <r>
@@ -84,7 +96,7 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
-        <rFont val="Verdana"/>
+        <rFont val="宋体"/>
       </rPr>
       <t>ORDER DATE</t>
     </r>
@@ -114,7 +126,7 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
-        <rFont val="Verdana"/>
+        <rFont val="宋体"/>
       </rPr>
       <t>MARKS</t>
     </r>
@@ -128,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>#{marks}</t>
+    <t>“marks”</t>
   </si>
   <si>
     <r>
@@ -144,9 +156,18 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>PORT OF DESTINATION</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">PORT OF DESTINATION:            </t>
+      <t xml:space="preserve">:            </t>
     </r>
     <r>
       <rPr>
@@ -159,7 +180,7 @@
     </r>
   </si>
   <si>
-    <t>#{port_of_destination}</t>
+    <t>“port_of_destination”</t>
   </si>
   <si>
     <r>
@@ -175,28 +196,109 @@
         <b val="1"/>
         <sz val="8"/>
         <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>LOADING DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t xml:space="preserve">LOADING DATE: </t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
     <t>#{loading_date}</t>
   </si>
   <si>
-    <t>箱号CONTAINER NO.:</t>
-  </si>
-  <si>
-    <t>#{container_no}</t>
-  </si>
-  <si>
-    <t>封号SEAL NO.:</t>
-  </si>
-  <si>
-    <t>#{seal_no}</t>
-  </si>
-  <si>
-    <t>提单号BL NO.:</t>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>箱号</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>CONTAINER NO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>“container_no”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>封号</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>SEAL NO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>“seal_no”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>提单号</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>BL NO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="11"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>:</t>
+    </r>
   </si>
   <si>
     <t>#{bl_no}</t>
@@ -314,6 +416,57 @@
   </si>
   <si>
     <t>مبلغ</t>
+  </si>
+  <si>
+    <t>#HeaderEnd#</t>
+  </si>
+  <si>
+    <t>#ContentBegin#</t>
+  </si>
+  <si>
+    <t>“order_id”</t>
+  </si>
+  <si>
+    <t>“supplier”</t>
+  </si>
+  <si>
+    <t>“image”</t>
+  </si>
+  <si>
+    <t>“product_code”</t>
+  </si>
+  <si>
+    <t>“product_name”</t>
+  </si>
+  <si>
+    <t>“spec”</t>
+  </si>
+  <si>
+    <t>“quantity_per_unit”</t>
+  </si>
+  <si>
+    <t>“no_of_unit”</t>
+  </si>
+  <si>
+    <t>“item_total_volume”</t>
+  </si>
+  <si>
+    <t>“item_total_weight”</t>
+  </si>
+  <si>
+    <t>“item_price”</t>
+  </si>
+  <si>
+    <t>“item_total_price”</t>
+  </si>
+  <si>
+    <t>“volume_per_unit”</t>
+  </si>
+  <si>
+    <t>“weight_per_unit”</t>
+  </si>
+  <si>
+    <t>#ContentEnd#</t>
   </si>
 </sst>
 </file>
@@ -325,7 +478,7 @@
     <numFmt numFmtId="59" formatCode="0.00&quot; &quot;"/>
     <numFmt numFmtId="60" formatCode="&quot;¥&quot;#,##0.00&quot; &quot;;&quot;(¥&quot;#,##0.00)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -357,7 +510,7 @@
       <b val="1"/>
       <sz val="8"/>
       <color indexed="11"/>
-      <name val="Verdana"/>
+      <name val="宋体"/>
     </font>
     <font>
       <b val="1"/>
@@ -366,14 +519,9 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="11"/>
-      <name val="Helv"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="8"/>
-      <color indexed="8"/>
+      <color indexed="11"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -383,17 +531,12 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
@@ -429,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -458,6 +601,51 @@
       </left>
       <right style="thin">
         <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -514,21 +702,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -548,12 +721,18 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -576,95 +755,80 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1783,10 +1947,15 @@
     <col min="14" max="14" width="10.4453" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.73438" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.28906" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28906" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28906" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28906" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28906" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28906" style="1" customWidth="1"/>
+    <col min="22" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
+    <row r="1" ht="15.5" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1805,8 +1974,13 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>1</v>
       </c>
@@ -1825,1465 +1999,1911 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s" s="6">
+      <c r="B4" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" t="s" s="7">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="F4" s="11"/>
+      <c r="G4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" t="s" s="12">
+      <c r="H4" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" t="s" s="6">
+      <c r="B5" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" t="s" s="7">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="6">
+      <c r="F5" s="11"/>
+      <c r="G5" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="15"/>
-      <c r="L4" t="s" s="12">
+      <c r="H5" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="17">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" t="s" s="19">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" t="s" s="17">
+      <c r="B6" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" t="s" s="7">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="H5" t="s" s="17">
+      <c r="F6" s="13"/>
+      <c r="G6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" t="s" s="12">
+      <c r="H6" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="23">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="24">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" t="s" s="23">
+      <c r="B7" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="23">
+      <c r="C7" s="17"/>
+      <c r="D7" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="F6" t="s" s="23">
+      <c r="E7" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="G6" t="s" s="26">
+      <c r="F7" t="s" s="18">
         <v>25</v>
       </c>
-      <c r="H6" t="s" s="23">
+      <c r="G7" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" t="s" s="23">
+      <c r="H7" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="K6" t="s" s="23">
+      <c r="I7" s="19"/>
+      <c r="J7" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="L6" t="s" s="26">
+      <c r="K7" t="s" s="18">
         <v>29</v>
       </c>
-      <c r="M6" t="s" s="23">
+      <c r="L7" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="N6" t="s" s="23">
+      <c r="M7" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="O6" t="s" s="23">
+      <c r="N7" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="P6" t="s" s="28">
+      <c r="O7" t="s" s="15">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="s" s="29">
+      <c r="P7" t="s" s="20">
         <v>34</v>
       </c>
-      <c r="B7" t="s" s="30">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" t="s" s="22">
         <v>35</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" t="s" s="29">
+      <c r="B8" t="s" s="23">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="29">
+      <c r="C8" s="24"/>
+      <c r="D8" t="s" s="22">
         <v>37</v>
       </c>
-      <c r="F7" t="s" s="29">
+      <c r="E8" t="s" s="22">
         <v>38</v>
       </c>
-      <c r="G7" t="s" s="23">
+      <c r="F8" t="s" s="22">
         <v>39</v>
       </c>
-      <c r="H7" t="s" s="29">
+      <c r="G8" t="s" s="18">
         <v>40</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" t="s" s="29">
+      <c r="H8" t="s" s="22">
         <v>41</v>
       </c>
-      <c r="K7" t="s" s="29">
+      <c r="I8" s="25"/>
+      <c r="J8" t="s" s="22">
         <v>42</v>
       </c>
-      <c r="L7" t="s" s="29">
+      <c r="K8" t="s" s="22">
         <v>43</v>
       </c>
-      <c r="M7" t="s" s="29">
+      <c r="L8" t="s" s="22">
         <v>44</v>
       </c>
-      <c r="N7" t="s" s="29">
+      <c r="M8" t="s" s="22">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="29">
+      <c r="N8" t="s" s="22">
         <v>46</v>
       </c>
-      <c r="P7" t="s" s="33">
+      <c r="O8" t="s" s="22">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="29">
+      <c r="P8" t="s" s="26">
         <v>48</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="35"/>
-      <c r="E8" t="s" s="29">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" t="s" s="22">
         <v>49</v>
       </c>
-      <c r="F8" t="s" s="29">
+      <c r="B9" s="27"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="28"/>
+      <c r="E9" t="s" s="22">
         <v>50</v>
       </c>
-      <c r="G8" t="s" s="29">
+      <c r="F9" t="s" s="22">
         <v>51</v>
       </c>
-      <c r="H8" t="s" s="29">
+      <c r="G9" t="s" s="22">
         <v>52</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" t="s" s="29">
+      <c r="H9" t="s" s="22">
         <v>53</v>
       </c>
-      <c r="K8" t="s" s="29">
+      <c r="I9" s="25"/>
+      <c r="J9" t="s" s="22">
         <v>54</v>
       </c>
-      <c r="L8" t="s" s="29">
+      <c r="K9" t="s" s="22">
         <v>55</v>
       </c>
-      <c r="M8" t="s" s="29">
+      <c r="L9" t="s" s="22">
         <v>56</v>
       </c>
-      <c r="N8" t="s" s="29">
+      <c r="M9" t="s" s="22">
         <v>57</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+      <c r="N9" t="s" s="22">
+        <v>58</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="A10" t="s" s="29">
+        <v>59</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="A11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="A12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s" s="34">
+        <v>67</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" t="s" s="34">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s" s="34">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s" s="34">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s" s="34">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s" s="34">
+        <v>72</v>
+      </c>
+      <c r="O12" t="s" s="34">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s" s="34">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="A13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
     </row>
     <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
     </row>
     <row r="60" ht="18" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" ht="18" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
     </row>
     <row r="62" ht="18" customHeight="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
     </row>
     <row r="63" ht="18" customHeight="1">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
     </row>
     <row r="64" ht="18" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
     </row>
     <row r="65" ht="18" customHeight="1">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
     </row>
     <row r="66" ht="18" customHeight="1">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" ht="18" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" ht="18" customHeight="1">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
     </row>
     <row r="69" ht="18" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
     </row>
     <row r="70" ht="18" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
     </row>
     <row r="71" ht="18" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
     </row>
     <row r="72" ht="18" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
     </row>
     <row r="73" ht="18" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
     </row>
     <row r="74" ht="18" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
     </row>
     <row r="75" ht="18" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
     </row>
     <row r="76" ht="18" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+    </row>
+    <row r="77" ht="18" customHeight="1">
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>

--- a/public/system/spreadsheet/template/packing_template.xlsx
+++ b/public/system/spreadsheet/template/packing_template.xlsx
@@ -561,13 +561,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="11"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -736,6 +729,13 @@
       <sz val="8"/>
       <color indexed="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="11"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1177,152 +1177,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1398,16 +1398,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,15 +2568,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71666666666667" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.86666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.15833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.29166666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.575" style="1" customWidth="1"/>
@@ -2595,12 +2589,12 @@
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.4416666666667" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.73333333333333" style="1" customWidth="1"/>
-    <col min="15" max="20" width="6.29166666666667" style="1" customWidth="1"/>
-    <col min="21" max="255" width="8.73333333333333" style="1" customWidth="1"/>
-    <col min="256" max="256" width="8.73333333333333"/>
+    <col min="15" max="15" width="6.29166666666667" style="1" customWidth="1"/>
+    <col min="16" max="250" width="8.73333333333333" style="1" customWidth="1"/>
+    <col min="251" max="252" width="8.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:20">
+    <row r="1" ht="31.5" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2618,13 +2612,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
     </row>
-    <row r="2" customHeight="1" spans="1:20">
+    <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2642,13 +2631,8 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1" spans="1:20">
+    <row r="3" ht="16.5" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2676,13 +2660,8 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:20">
+    <row r="4" customHeight="1" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2710,13 +2689,8 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:20">
+    <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -2744,13 +2718,8 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
     </row>
-    <row r="6" customHeight="1" spans="1:20">
+    <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -2791,16 +2760,11 @@
       <c r="N6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
     </row>
-    <row r="7" customHeight="1" spans="1:20">
+    <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="16" t="s">
         <v>34</v>
       </c>
@@ -2841,16 +2805,11 @@
       <c r="N7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
     </row>
-    <row r="8" customHeight="1" spans="1:20">
+    <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="16" t="s">
         <v>48</v>
       </c>
@@ -2886,13 +2845,8 @@
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
     </row>
-    <row r="9" customHeight="1" spans="1:20">
+    <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="21" t="s">
         <v>58</v>
       </c>
@@ -2910,13 +2864,8 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
     </row>
-    <row r="10" customHeight="1" spans="1:20">
+    <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="21" t="s">
         <v>59</v>
       </c>
@@ -2962,13 +2911,8 @@
       <c r="O10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
     </row>
-    <row r="11" customHeight="1" spans="1:20">
+    <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -2986,11 +2930,6 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
